--- a/doc/ガントチャート.xlsx
+++ b/doc/ガントチャート.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28417"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="731" documentId="13_ncr:1_{76B1D2E1-5B02-4689-888F-FD9F5C863FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{515986A6-2BD6-4EAC-8055-C9DAEF960921}"/>
+  <xr:revisionPtr revIDLastSave="1127" documentId="13_ncr:1_{76B1D2E1-5B02-4689-888F-FD9F5C863FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A2C6BAFE-ECE9-4624-90F4-9CE783C18548}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28980" windowHeight="16215" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28980" windowHeight="16215" firstSheet="3" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概算スケジュール" sheetId="11" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="288">
   <si>
     <t>セル B2 には会社の名前を入力します。</t>
   </si>
@@ -337,6 +337,12 @@
     <t>本番不具合対応</t>
   </si>
   <si>
+    <t>理想時間を7時間と定義</t>
+  </si>
+  <si>
+    <t>何の割り込みもなく理想的に作業できる時間</t>
+  </si>
+  <si>
     <t>0.1人日 = 45分</t>
   </si>
   <si>
@@ -365,6 +371,534 @@
   </si>
   <si>
     <t>1.0人日 = 7時間30分</t>
+  </si>
+  <si>
+    <t>アジャイル開発</t>
+  </si>
+  <si>
+    <t>関係者は目的の達成のためにお互いに協力し合いながら進める</t>
+  </si>
+  <si>
+    <t>一度にまとめてではなく少しずつ作り、早い段階から実際に動作するものを届け続けて評価を繰り返す</t>
+  </si>
+  <si>
+    <t>利用者の反応や関係者からのフィードバックを継続的に得ながら、作っているもの自体や計画を調整する</t>
+  </si>
+  <si>
+    <t>スクラム</t>
+  </si>
+  <si>
+    <t>要求を価値やリスクや必要性を基準にして並べ替えて、その順にプロダクトを作ることで成果を最大化します</t>
+  </si>
+  <si>
+    <t>スクラムでは固定の短い時間に区切って作業を進めます。固定の時間のことをタイムボックスと呼びます</t>
+  </si>
+  <si>
+    <t>現在の状況や問題点を常に明らかにします。これを透明性と呼びます</t>
+  </si>
+  <si>
+    <t>定期的に進捗状況や作っているプロダクトで期待されている成果を得られるのか、</t>
+  </si>
+  <si>
+    <t>仕事の進め方に問題がないかどうかを確認します。これを検査と呼びます</t>
+  </si>
+  <si>
+    <t>やり方に問題があったり、もっとうまくできる方法があったりすれば、</t>
+  </si>
+  <si>
+    <t>やり方そのものを変えます。これを適応と呼びます</t>
+  </si>
+  <si>
+    <t>【作成物１】プロダクトバックログ</t>
+  </si>
+  <si>
+    <t>機能や要求、要望、修正などプロダクトに必要なものを抽出し、順番に並べ替えたモノ</t>
+  </si>
+  <si>
+    <t>◆実現したいことをリストにして並び替える</t>
+  </si>
+  <si>
+    <t>・優先度ではない</t>
+  </si>
+  <si>
+    <t>◆常にメンテナンスして最新に保つ</t>
+  </si>
+  <si>
+    <t>・項目が追加されたり、削除されたりする</t>
+  </si>
+  <si>
+    <t>・順番は定期的に見直す</t>
+  </si>
+  <si>
+    <t>◆上位の項目は見積もりを済ませておく</t>
+  </si>
+  <si>
+    <t>（定期的に見積もり直す）</t>
+  </si>
+  <si>
+    <t>【ロール１】プロダクトオーナー</t>
+  </si>
+  <si>
+    <t>◆プロダクトのWhatを担当</t>
+  </si>
+  <si>
+    <t>◆プロダクトの価値を最大化する</t>
+  </si>
+  <si>
+    <t>◆プロダクトの責任者（結果責任）で、プロダクトに1人必ず必要</t>
+  </si>
+  <si>
+    <t>◆プロダクトバックログの管理者</t>
+  </si>
+  <si>
+    <t>◆プロダクトバックログ項目の並び順の最終決定権限を持つ</t>
+  </si>
+  <si>
+    <t>◆プロダクトバックログ項目が完成しているかどうかを確認</t>
+  </si>
+  <si>
+    <t>◆開発チームに相談できるが干渉はできない</t>
+  </si>
+  <si>
+    <t>◆ステークホルダーとの協業</t>
+  </si>
+  <si>
+    <t>プロダクトのビジョンを明らかにし、周りと共有する</t>
+  </si>
+  <si>
+    <t>おおよそのリリース計画を定める</t>
+  </si>
+  <si>
+    <t>予算を管理する</t>
+  </si>
+  <si>
+    <t>顧客、プロダクトの利用者や組織の関連部署などの関係者と、</t>
+  </si>
+  <si>
+    <t>プロダクトバックログの項目の内容を確認したり、</t>
+  </si>
+  <si>
+    <t>作る順番や実現時期を相談したりする</t>
+  </si>
+  <si>
+    <t>【ロール１】開発チーム</t>
+  </si>
+  <si>
+    <t>◆プロダクトのHowを担当</t>
+  </si>
+  <si>
+    <t>◆モノを作る</t>
+  </si>
+  <si>
+    <t>◆3人〜9人が適切な規模</t>
+  </si>
+  <si>
+    <t>◆全員揃えばプロダクトを作る能力が揃う</t>
+  </si>
+  <si>
+    <t>◆肩書やサブチームはなし</t>
+  </si>
+  <si>
+    <t>【イベント１】スプリント</t>
+  </si>
+  <si>
+    <t>◆1ヶ月までの同じ期間に区切って繰り返す</t>
+  </si>
+  <si>
+    <t>一つの区切りをスプリントと呼ぶ</t>
+  </si>
+  <si>
+    <t>◆スプリントは、他のイベントのコンテナ（入れ物）となる</t>
+  </si>
+  <si>
+    <t>◆期間の長さが変わってはいけない</t>
+  </si>
+  <si>
+    <t>【イベント２】スプリントプランニング</t>
+  </si>
+  <si>
+    <t>◆スプリントで開発をするためには計画が必要なので、</t>
+  </si>
+  <si>
+    <t>スプリントの冒頭で実施する</t>
+  </si>
+  <si>
+    <t>◆プログダクトオーナーは何を欲しいか（トピック１）</t>
+  </si>
+  <si>
+    <t>◆開発チームはどれくらいできそうか（トピック１）</t>
+  </si>
+  <si>
+    <t>◆開発チームはどうやって実現するか</t>
+  </si>
+  <si>
+    <t>トピック１　スプリントで何を達成するか決める</t>
+  </si>
+  <si>
+    <t>プロダクトオーナーが今回のスプリントで達成したい目的を明らかにする</t>
+  </si>
+  <si>
+    <t>今回のスプリントで達成するために完成させるプロダクトバックログ項目を選ぶ</t>
+  </si>
+  <si>
+    <t>プロダクトバックログの個数は、</t>
+  </si>
+  <si>
+    <t>それぞれの項目の見積もりのサイズや開発チームの過去の実績（ベロシティ）</t>
+  </si>
+  <si>
+    <t>今回のスプリントで作業に使える時間（キャパシティ）などを踏まえて仮決定する</t>
+  </si>
+  <si>
+    <t>検討後。スプリントの目標を簡潔にまとめる（スプリントゴール）</t>
+  </si>
+  <si>
+    <t>スプリントプランニングを開始する前に、</t>
+  </si>
+  <si>
+    <t>プロダクトバックログの上位の項目については事前準備が必要）</t>
+  </si>
+  <si>
+    <t>→プロダクトバックログリファインメント</t>
+  </si>
+  <si>
+    <t>項目の中身を具体的にする</t>
+  </si>
+  <si>
+    <t>項目の疑問点を解決する</t>
+  </si>
+  <si>
+    <t>何ができたら完成なのか、（受け入れ基準）明らかにする</t>
+  </si>
+  <si>
+    <t>自分たちが扱えるサイズに分割する</t>
+  </si>
+  <si>
+    <t>項目を見積もる　など</t>
+  </si>
+  <si>
+    <t>※リファインメントをいつどのように行うかは、スクラムでは定義していない</t>
+  </si>
+  <si>
+    <t>　スプリントの10%以内にするのが一般的</t>
+  </si>
+  <si>
+    <t>トピック２</t>
+  </si>
+  <si>
+    <t>選択したプロダクトバックログ項目ごとに、</t>
+  </si>
+  <si>
+    <t>具体的な作業を洗い出すなどして作業計画を立てる</t>
+  </si>
+  <si>
+    <t>スプリントバックログ</t>
+  </si>
+  <si>
+    <t>【作成物２】スプリントバックログ</t>
+  </si>
+  <si>
+    <t>開発チームの作業計画</t>
+  </si>
+  <si>
+    <t>スプリント期間中も作業の追加・削除ができる</t>
+  </si>
+  <si>
+    <t>◆選択したプロダクトバックログ項目と実行計画</t>
+  </si>
+  <si>
+    <t>◆プロダクトバックログを具体的な作業に分割する</t>
+  </si>
+  <si>
+    <t>◆後から増えることもある</t>
+  </si>
+  <si>
+    <t>◆1タスクは1日以内で終わるサイズ</t>
+  </si>
+  <si>
+    <t>開発チームはスプリントプランニングで合意した内容を</t>
+  </si>
+  <si>
+    <t>完成させるように全力を尽くす必要はあるものの、</t>
+  </si>
+  <si>
+    <t>計画したことをすべて完成させることを約束しているわけではない</t>
+  </si>
+  <si>
+    <t>【作成物３】インクリメント</t>
+  </si>
+  <si>
+    <t>◆インクリメントとはこれまでのスプリントでの成果と今スプリントで</t>
+  </si>
+  <si>
+    <t>完成したプロダクトバックログ項目を合わせたものを指す</t>
+  </si>
+  <si>
+    <t>◆リリースするかどうかに関係なく動作して検査可能でなければいけない</t>
+  </si>
+  <si>
+    <t>◆多くの場合、完成していて正常に動作するソフトウェア</t>
+  </si>
+  <si>
+    <t>【完成の定義】</t>
+  </si>
+  <si>
+    <t>◆感性の定義を作り、何を持って「完成」とするかの基準を定める</t>
+  </si>
+  <si>
+    <t>◆スプリントでどこまでやるか決める</t>
+  </si>
+  <si>
+    <t>◆プロダクトオーナーと開発チームで事前合意する</t>
+  </si>
+  <si>
+    <t>例</t>
+  </si>
+  <si>
+    <t>クロスブラウザ</t>
+  </si>
+  <si>
+    <t>チェックイン</t>
+  </si>
+  <si>
+    <t>静的解析</t>
+  </si>
+  <si>
+    <t>ユニットテスト</t>
+  </si>
+  <si>
+    <t>ドキュメント</t>
+  </si>
+  <si>
+    <t>カバレッジ85%</t>
+  </si>
+  <si>
+    <t>性能</t>
+  </si>
+  <si>
+    <t>セキュリティ</t>
+  </si>
+  <si>
+    <t>受け入れテスト</t>
+  </si>
+  <si>
+    <t>デプロイ</t>
+  </si>
+  <si>
+    <t>【イベント３】　デイリースクラム</t>
+  </si>
+  <si>
+    <t>◆スプリントゴールの達成のために、自分が昨日やったことは何か</t>
+  </si>
+  <si>
+    <t>◆スプリントゴールの達成のために、自分が今日やることは何か</t>
+  </si>
+  <si>
+    <t>◆スプリントゴールの達成する上で、障害となるものがあるか？</t>
+  </si>
+  <si>
+    <t>15分のタイムボックスで行い、延長はしない</t>
+  </si>
+  <si>
+    <t>問題解決の場ではない</t>
+  </si>
+  <si>
+    <t>【イベント４】　スプリントレビュー</t>
+  </si>
+  <si>
+    <t>◆開発チームのスプリントでの成果物（完成したもの）を関係者にデモする</t>
+  </si>
+  <si>
+    <t>・事前に完成したもの、完成してないものを区別しておくと良い</t>
+  </si>
+  <si>
+    <t>◆フィードバックを得て、プロダクトバックログを見直す</t>
+  </si>
+  <si>
+    <t>◆全体の残作業や進捗をトラッキングする</t>
+  </si>
+  <si>
+    <t>◆今後の予定や見通しを共有する</t>
+  </si>
+  <si>
+    <t>◆プロダクトオーナーが主催</t>
+  </si>
+  <si>
+    <t>◆ステークホルダーに参加してもらう</t>
+  </si>
+  <si>
+    <t>・スプリントで完成しなかったプロダクトバックログの項目について説明する</t>
+  </si>
+  <si>
+    <t>・スプリントでうまくいかなかったことや直面した問題点、解決した方法について議論する</t>
+  </si>
+  <si>
+    <t>・プロダクトオーナーがプロダクトの状況やビジネスの環境について説明する</t>
+  </si>
+  <si>
+    <t>・プロダクトバックログに追加すべき高jモクの有無について議論する</t>
+  </si>
+  <si>
+    <t>・プロダクトの開発を進める上で、問題となる事項について議論する</t>
+  </si>
+  <si>
+    <t>・現在の進捗を踏まえて、リリース日や完了日を予測する</t>
+  </si>
+  <si>
+    <t>スプリントレビューに使える時間は、2週間の場合2時間</t>
+  </si>
+  <si>
+    <t>【イベント５】　スプリントレトロスペクティブ</t>
+  </si>
+  <si>
+    <t>◆もっとうまく仕事を進められるように改善を繰り返す</t>
+  </si>
+  <si>
+    <t>◆バグを直すのではなく、バグが生まれるプロセスを直す</t>
+  </si>
+  <si>
+    <t>◆人、関係、プロセス、ツールなどの観点で今回のスプリントを検査する</t>
+  </si>
+  <si>
+    <t>◆うまく行ったこと、今後の改善点を整理する</t>
+  </si>
+  <si>
+    <t>◆今後のアクションプランを作る</t>
+  </si>
+  <si>
+    <t>◆一度にたくさんのことを変更しようとしない</t>
+  </si>
+  <si>
+    <t>スプリントレビューの後に行う</t>
+  </si>
+  <si>
+    <t>スプリントレトロスペクティブに使える時間が2週間スプリントであれば、1.5時間</t>
+  </si>
+  <si>
+    <t>週次で開催したりもできる</t>
+  </si>
+  <si>
+    <t>【ロール３】スクラムマスター</t>
+  </si>
+  <si>
+    <t>◆フレームワーク・仕組みがうまく回るようにする</t>
+  </si>
+  <si>
+    <t>◆妨害の排除</t>
+  </si>
+  <si>
+    <t>◆支援と奉仕（サバントリーダーシップ）</t>
+  </si>
+  <si>
+    <t>◆教育、ファシリテーター、コーチ、推進役</t>
+  </si>
+  <si>
+    <t>◆マネージャーや管理者ではない</t>
+  </si>
+  <si>
+    <t>・タスクのアサインも進捗管理もしない</t>
+  </si>
+  <si>
+    <t>プロダクトオーナーや開発チームにスクラムのやり方を教える</t>
+  </si>
+  <si>
+    <t>スクラムに慣れたら、よりうまく仕事を進められるようなヒントを与える活動にシフトする</t>
+  </si>
+  <si>
+    <t>プロダクトオーナーや開発チームにアジャイル開発やスクラムについて説明して理解してもらう</t>
+  </si>
+  <si>
+    <t>スプリントプランニングやスプリントレトロスペクティブなどの会議の進行を必要に応じて行う</t>
+  </si>
+  <si>
+    <t>プロダクトオーナーと開発チームの会話を促す</t>
+  </si>
+  <si>
+    <t>プロダクトオーナーや開発チームの生産性が高くなるように変化を促す</t>
+  </si>
+  <si>
+    <t>わかりやすいプロダクトバックログの書き方をプロダクトオーナーや開発チームに教える</t>
+  </si>
+  <si>
+    <t>プロダクトバックログのいい管理方法を探す</t>
+  </si>
+  <si>
+    <t>スクラムの5つの価値基準</t>
+  </si>
+  <si>
+    <t>確約</t>
+  </si>
+  <si>
+    <t>各人がゴールの達成に全力を尽くすことを確約する</t>
+  </si>
+  <si>
+    <t>勇気</t>
+  </si>
+  <si>
+    <t>正しいことをする勇気を持ち、困難な問題に取り組む</t>
+  </si>
+  <si>
+    <t>集中</t>
+  </si>
+  <si>
+    <t>全員がスプリントでの作業やゴールの達成に集中する</t>
+  </si>
+  <si>
+    <t>公開</t>
+  </si>
+  <si>
+    <t>全ての仕事や問題を公開することに合意する</t>
+  </si>
+  <si>
+    <t>尊敬</t>
+  </si>
+  <si>
+    <t>お互いを能力ある個人として尊敬する</t>
+  </si>
+  <si>
+    <t>エレベーターピッチ</t>
+  </si>
+  <si>
+    <t>[]したい</t>
+  </si>
+  <si>
+    <t>[最新情報をもとに効率よく営業活動を]したい</t>
+  </si>
+  <si>
+    <t>[]向けの</t>
+  </si>
+  <si>
+    <t>[ずっと外出している弊社の営業マン]向けの、</t>
+  </si>
+  <si>
+    <t>[]というプロダクトは、</t>
+  </si>
+  <si>
+    <t>[New営業支援くん]というプロダクトは、</t>
+  </si>
+  <si>
+    <t>[]です。</t>
+  </si>
+  <si>
+    <t>[営業支援システム]です</t>
+  </si>
+  <si>
+    <t>これは[]ができ、</t>
+  </si>
+  <si>
+    <t>これは[外でも簡単に操作すること]ができ</t>
+  </si>
+  <si>
+    <t>[]とは違って、</t>
+  </si>
+  <si>
+    <t>[既存のシステム]とは違って</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[外出先でアクセスしやすい方法がいくつか提供され、最新の情報をいつでも参照・更新できる仕組み]が備わっている</t>
   </si>
   <si>
     <t>最初のリリースまでの概算見積もり</t>
@@ -1225,7 +1759,7 @@
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1504,6 +2038,7 @@
     <xf numFmtId="0" fontId="0" fillId="48" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1513,14 +2048,14 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="182" fontId="1" fillId="4" borderId="3" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="8" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="182" fontId="1" fillId="4" borderId="3" xfId="9" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -2252,7 +2787,7 @@
   <dimension ref="A1:DB86"/>
   <sheetViews>
     <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="5" topLeftCell="E7" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -2283,166 +2818,166 @@
         <v>1</v>
       </c>
       <c r="B2" s="12"/>
-      <c r="C2" s="101" t="s">
+      <c r="C2" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="103">
+      <c r="D2" s="104"/>
+      <c r="E2" s="102">
         <v>45649</v>
       </c>
-      <c r="F2" s="103"/>
+      <c r="F2" s="102"/>
     </row>
     <row r="3" spans="1:106" ht="19.5" customHeight="1">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="101" t="s">
+      <c r="C3" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="102"/>
+      <c r="D3" s="104"/>
       <c r="E3" s="4">
         <v>1</v>
       </c>
-      <c r="I3" s="98">
+      <c r="I3" s="99">
         <f>I4</f>
         <v>45649</v>
       </c>
-      <c r="J3" s="99"/>
-      <c r="K3" s="99"/>
-      <c r="L3" s="99"/>
-      <c r="M3" s="99"/>
-      <c r="N3" s="99"/>
-      <c r="O3" s="100"/>
-      <c r="P3" s="98">
+      <c r="J3" s="100"/>
+      <c r="K3" s="100"/>
+      <c r="L3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="N3" s="100"/>
+      <c r="O3" s="101"/>
+      <c r="P3" s="99">
         <f>P4</f>
         <v>45656</v>
       </c>
-      <c r="Q3" s="99"/>
-      <c r="R3" s="99"/>
-      <c r="S3" s="99"/>
-      <c r="T3" s="99"/>
-      <c r="U3" s="99"/>
-      <c r="V3" s="100"/>
-      <c r="W3" s="98">
+      <c r="Q3" s="100"/>
+      <c r="R3" s="100"/>
+      <c r="S3" s="100"/>
+      <c r="T3" s="100"/>
+      <c r="U3" s="100"/>
+      <c r="V3" s="101"/>
+      <c r="W3" s="99">
         <f>W4</f>
         <v>45663</v>
       </c>
-      <c r="X3" s="99"/>
-      <c r="Y3" s="99"/>
-      <c r="Z3" s="99"/>
-      <c r="AA3" s="99"/>
-      <c r="AB3" s="99"/>
-      <c r="AC3" s="100"/>
-      <c r="AD3" s="98">
+      <c r="X3" s="100"/>
+      <c r="Y3" s="100"/>
+      <c r="Z3" s="100"/>
+      <c r="AA3" s="100"/>
+      <c r="AB3" s="100"/>
+      <c r="AC3" s="101"/>
+      <c r="AD3" s="99">
         <f>AD4</f>
         <v>45670</v>
       </c>
-      <c r="AE3" s="99"/>
-      <c r="AF3" s="99"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="99"/>
-      <c r="AI3" s="99"/>
-      <c r="AJ3" s="100"/>
-      <c r="AK3" s="98">
+      <c r="AE3" s="100"/>
+      <c r="AF3" s="100"/>
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="100"/>
+      <c r="AJ3" s="101"/>
+      <c r="AK3" s="99">
         <f>AK4</f>
         <v>45677</v>
       </c>
-      <c r="AL3" s="99"/>
-      <c r="AM3" s="99"/>
-      <c r="AN3" s="99"/>
-      <c r="AO3" s="99"/>
-      <c r="AP3" s="99"/>
-      <c r="AQ3" s="100"/>
-      <c r="AR3" s="98">
+      <c r="AL3" s="100"/>
+      <c r="AM3" s="100"/>
+      <c r="AN3" s="100"/>
+      <c r="AO3" s="100"/>
+      <c r="AP3" s="100"/>
+      <c r="AQ3" s="101"/>
+      <c r="AR3" s="99">
         <f>AR4</f>
         <v>45684</v>
       </c>
-      <c r="AS3" s="99"/>
-      <c r="AT3" s="99"/>
-      <c r="AU3" s="99"/>
-      <c r="AV3" s="99"/>
-      <c r="AW3" s="99"/>
-      <c r="AX3" s="100"/>
-      <c r="AY3" s="98">
+      <c r="AS3" s="100"/>
+      <c r="AT3" s="100"/>
+      <c r="AU3" s="100"/>
+      <c r="AV3" s="100"/>
+      <c r="AW3" s="100"/>
+      <c r="AX3" s="101"/>
+      <c r="AY3" s="99">
         <f>AY4</f>
         <v>45691</v>
       </c>
-      <c r="AZ3" s="99"/>
-      <c r="BA3" s="99"/>
-      <c r="BB3" s="99"/>
-      <c r="BC3" s="99"/>
-      <c r="BD3" s="99"/>
-      <c r="BE3" s="100"/>
-      <c r="BF3" s="98">
+      <c r="AZ3" s="100"/>
+      <c r="BA3" s="100"/>
+      <c r="BB3" s="100"/>
+      <c r="BC3" s="100"/>
+      <c r="BD3" s="100"/>
+      <c r="BE3" s="101"/>
+      <c r="BF3" s="99">
         <f>BF4</f>
         <v>45698</v>
       </c>
-      <c r="BG3" s="99"/>
-      <c r="BH3" s="99"/>
-      <c r="BI3" s="99"/>
-      <c r="BJ3" s="99"/>
-      <c r="BK3" s="99"/>
-      <c r="BL3" s="100"/>
-      <c r="BM3" s="98">
+      <c r="BG3" s="100"/>
+      <c r="BH3" s="100"/>
+      <c r="BI3" s="100"/>
+      <c r="BJ3" s="100"/>
+      <c r="BK3" s="100"/>
+      <c r="BL3" s="101"/>
+      <c r="BM3" s="99">
         <f>BM4</f>
         <v>45705</v>
       </c>
-      <c r="BN3" s="99"/>
-      <c r="BO3" s="99"/>
-      <c r="BP3" s="99"/>
-      <c r="BQ3" s="99"/>
-      <c r="BR3" s="99"/>
-      <c r="BS3" s="100"/>
-      <c r="BT3" s="98">
+      <c r="BN3" s="100"/>
+      <c r="BO3" s="100"/>
+      <c r="BP3" s="100"/>
+      <c r="BQ3" s="100"/>
+      <c r="BR3" s="100"/>
+      <c r="BS3" s="101"/>
+      <c r="BT3" s="99">
         <f>BT4</f>
         <v>45712</v>
       </c>
-      <c r="BU3" s="99"/>
-      <c r="BV3" s="99"/>
-      <c r="BW3" s="99"/>
-      <c r="BX3" s="99"/>
-      <c r="BY3" s="99"/>
-      <c r="BZ3" s="100"/>
-      <c r="CA3" s="98">
+      <c r="BU3" s="100"/>
+      <c r="BV3" s="100"/>
+      <c r="BW3" s="100"/>
+      <c r="BX3" s="100"/>
+      <c r="BY3" s="100"/>
+      <c r="BZ3" s="101"/>
+      <c r="CA3" s="99">
         <f>CA4</f>
         <v>45719</v>
       </c>
-      <c r="CB3" s="99"/>
-      <c r="CC3" s="99"/>
-      <c r="CD3" s="99"/>
-      <c r="CE3" s="99"/>
-      <c r="CF3" s="99"/>
-      <c r="CG3" s="100"/>
-      <c r="CH3" s="98">
+      <c r="CB3" s="100"/>
+      <c r="CC3" s="100"/>
+      <c r="CD3" s="100"/>
+      <c r="CE3" s="100"/>
+      <c r="CF3" s="100"/>
+      <c r="CG3" s="101"/>
+      <c r="CH3" s="99">
         <f>CH4</f>
         <v>45726</v>
       </c>
-      <c r="CI3" s="99"/>
-      <c r="CJ3" s="99"/>
-      <c r="CK3" s="99"/>
-      <c r="CL3" s="99"/>
-      <c r="CM3" s="99"/>
-      <c r="CN3" s="100"/>
-      <c r="CO3" s="98">
+      <c r="CI3" s="100"/>
+      <c r="CJ3" s="100"/>
+      <c r="CK3" s="100"/>
+      <c r="CL3" s="100"/>
+      <c r="CM3" s="100"/>
+      <c r="CN3" s="101"/>
+      <c r="CO3" s="99">
         <f>CO4</f>
         <v>45733</v>
       </c>
-      <c r="CP3" s="99"/>
-      <c r="CQ3" s="99"/>
-      <c r="CR3" s="99"/>
-      <c r="CS3" s="99"/>
-      <c r="CT3" s="99"/>
-      <c r="CU3" s="100"/>
-      <c r="CV3" s="98">
+      <c r="CP3" s="100"/>
+      <c r="CQ3" s="100"/>
+      <c r="CR3" s="100"/>
+      <c r="CS3" s="100"/>
+      <c r="CT3" s="100"/>
+      <c r="CU3" s="101"/>
+      <c r="CV3" s="99">
         <f>CV4</f>
         <v>45740</v>
       </c>
-      <c r="CW3" s="99"/>
-      <c r="CX3" s="99"/>
-      <c r="CY3" s="99"/>
-      <c r="CZ3" s="99"/>
-      <c r="DA3" s="99"/>
-      <c r="DB3" s="100"/>
+      <c r="CW3" s="100"/>
+      <c r="CX3" s="100"/>
+      <c r="CY3" s="100"/>
+      <c r="CZ3" s="100"/>
+      <c r="DA3" s="100"/>
+      <c r="DB3" s="101"/>
     </row>
     <row r="4" spans="1:106" ht="15" customHeight="1">
       <c r="A4" s="9" t="s">
@@ -12552,23 +13087,23 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="CV3:DB3"/>
+    <mergeCell ref="BM3:BS3"/>
+    <mergeCell ref="BT3:BZ3"/>
+    <mergeCell ref="CA3:CG3"/>
+    <mergeCell ref="CH3:CN3"/>
+    <mergeCell ref="CO3:CU3"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="AK3:AQ3"/>
+    <mergeCell ref="AR3:AX3"/>
+    <mergeCell ref="AY3:BE3"/>
     <mergeCell ref="BF3:BL3"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="I3:O3"/>
     <mergeCell ref="P3:V3"/>
     <mergeCell ref="W3:AC3"/>
     <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="AK3:AQ3"/>
-    <mergeCell ref="AR3:AX3"/>
-    <mergeCell ref="AY3:BE3"/>
-    <mergeCell ref="CV3:DB3"/>
-    <mergeCell ref="BM3:BS3"/>
-    <mergeCell ref="BT3:BZ3"/>
-    <mergeCell ref="CA3:CG3"/>
-    <mergeCell ref="CH3:CN3"/>
-    <mergeCell ref="CO3:CU3"/>
   </mergeCells>
   <phoneticPr fontId="27"/>
   <conditionalFormatting sqref="D6:D83">
@@ -12695,8 +13230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -12802,9 +13337,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4D8EA70-0615-4FA1-8316-111D4949FC5F}">
-  <dimension ref="B2:G43"/>
+  <dimension ref="B2:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75"/>
   <sheetData>
@@ -12951,54 +13488,64 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:3">
       <c r="B34" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
-      <c r="B35" t="s">
+    <row r="35" spans="2:3">
+      <c r="C35" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
-      <c r="B36" t="s">
+    <row r="38" spans="2:3">
+      <c r="B38" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="37" spans="2:2">
-      <c r="B37" t="s">
+    <row r="39" spans="2:3">
+      <c r="B39" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
-      <c r="B38" t="s">
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="39" spans="2:2">
-      <c r="B39" t="s">
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3">
+      <c r="B46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3">
+      <c r="B47" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -13008,10 +13555,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C05A217-BB3A-464E-983A-1697209ED4FF}">
-  <dimension ref="B2:L16"/>
+  <dimension ref="B2:M224"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView topLeftCell="A192" workbookViewId="0">
+      <selection activeCell="M208" sqref="M208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.44140625" defaultRowHeight="15.75"/>
@@ -13019,75 +13566,942 @@
     <col min="3" max="3" width="2.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:12">
+    <row r="2" spans="2:3">
       <c r="B2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="2:12">
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12">
-      <c r="B5" t="s">
         <v>97</v>
       </c>
-      <c r="L5" t="s">
+    </row>
+    <row r="3" spans="2:3">
+      <c r="C3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="2:12">
-      <c r="L6" t="s">
+    <row r="4" spans="2:3">
+      <c r="C4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="2:12">
-      <c r="L7" t="s">
+    <row r="5" spans="2:3">
+      <c r="C5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="2:12">
-      <c r="L8" t="s">
+    <row r="7" spans="2:3">
+      <c r="B7" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="10" spans="2:12">
-      <c r="B10" t="s">
+    <row r="8" spans="2:3">
+      <c r="C8" t="s">
         <v>102</v>
       </c>
-      <c r="L10" t="s">
+    </row>
+    <row r="9" spans="2:3">
+      <c r="C9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="11" spans="2:12">
-      <c r="L11" t="s">
+    <row r="10" spans="2:3">
+      <c r="C10" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="12" spans="2:12">
-      <c r="L12" t="s">
+    <row r="11" spans="2:3">
+      <c r="C11" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="13" spans="2:12">
-      <c r="L13" t="s">
+    <row r="12" spans="2:3">
+      <c r="C12" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="14" spans="2:12">
-      <c r="L14" t="s">
+    <row r="13" spans="2:3">
+      <c r="C13" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="2:12">
-      <c r="L15" t="s">
+    <row r="14" spans="2:3">
+      <c r="C14" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="16" spans="2:12">
-      <c r="L16" t="s">
+    <row r="16" spans="2:3">
+      <c r="B16" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="D18" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="E19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="D20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="E22" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5">
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="D28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="D29" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="D30" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="D31" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="D32" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="D33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="D34" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="D35" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="E37" s="98" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="E38" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="E39" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="E40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="E41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="E42" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="D46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="D47" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="D48" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="D49" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="D50" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="D53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="E54" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="D55" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="D56" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="D59" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="E60" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="D61" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="D62" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5">
+      <c r="D63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="65" spans="4:6">
+      <c r="E65" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="66" spans="4:6">
+      <c r="F66" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="67" spans="4:6">
+      <c r="F67" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="68" spans="4:6">
+      <c r="F68" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="69" spans="4:6">
+      <c r="F69" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="70" spans="4:6">
+      <c r="F70" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="71" spans="4:6">
+      <c r="F71" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="73" spans="4:6">
+      <c r="D73" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="4:6">
+      <c r="D74" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="75" spans="4:6">
+      <c r="D75" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="76" spans="4:6">
+      <c r="E76" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="77" spans="4:6">
+      <c r="E77" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="78" spans="4:6">
+      <c r="E78" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="79" spans="4:6">
+      <c r="E79" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="80" spans="4:6">
+      <c r="E80" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6">
+      <c r="E81" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6">
+      <c r="E82" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6">
+      <c r="E90" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6">
+      <c r="F91" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6">
+      <c r="F92" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6">
+      <c r="F94" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="C100" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="C101" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="C102" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4">
+      <c r="D104" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4">
+      <c r="D105" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4">
+      <c r="D106" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4">
+      <c r="D107" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4">
+      <c r="D109" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4">
+      <c r="D110" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4">
+      <c r="D111" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="113" spans="2:12">
+      <c r="B113" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="114" spans="2:12">
+      <c r="C114" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="115" spans="2:12">
+      <c r="D115" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="116" spans="2:12">
+      <c r="C116" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="117" spans="2:12">
+      <c r="C117" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="119" spans="2:12">
+      <c r="B119" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="120" spans="2:12">
+      <c r="C120" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="121" spans="2:12">
+      <c r="C121" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="122" spans="2:12">
+      <c r="C122" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="123" spans="2:12">
+      <c r="D123" t="s">
+        <v>190</v>
+      </c>
+      <c r="E123" t="s">
+        <v>74</v>
+      </c>
+      <c r="L123" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="124" spans="2:12">
+      <c r="E124" t="s">
+        <v>192</v>
+      </c>
+      <c r="L124" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="125" spans="2:12">
+      <c r="E125" t="s">
+        <v>194</v>
+      </c>
+      <c r="L125" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="126" spans="2:12">
+      <c r="E126" t="s">
+        <v>196</v>
+      </c>
+      <c r="L126" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="127" spans="2:12">
+      <c r="E127" t="s">
+        <v>78</v>
+      </c>
+      <c r="L127" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="128" spans="2:12">
+      <c r="E128" t="s">
+        <v>199</v>
+      </c>
+      <c r="L128" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5">
+      <c r="B130" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5">
+      <c r="D131" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5">
+      <c r="D132" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5">
+      <c r="D133" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="135" spans="2:5">
+      <c r="D135" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="136" spans="2:5">
+      <c r="D136" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="139" spans="2:5">
+      <c r="B139" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="140" spans="2:5">
+      <c r="D140" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="141" spans="2:5">
+      <c r="E141" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="142" spans="2:5">
+      <c r="D142" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="143" spans="2:5">
+      <c r="D143" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="144" spans="2:5">
+      <c r="D144" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="145" spans="2:5">
+      <c r="D145" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="146" spans="2:5">
+      <c r="D146" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="148" spans="2:5">
+      <c r="E148" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="149" spans="2:5">
+      <c r="E149" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="150" spans="2:5">
+      <c r="E150" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="151" spans="2:5">
+      <c r="E151" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="152" spans="2:5">
+      <c r="E152" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="153" spans="2:5">
+      <c r="E153" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="155" spans="2:5">
+      <c r="E155" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="158" spans="2:5">
+      <c r="B158" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="159" spans="2:5">
+      <c r="D159" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="160" spans="2:5">
+      <c r="D160" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4">
+      <c r="D161" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4">
+      <c r="D162" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4">
+      <c r="D163" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4">
+      <c r="D164" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="166" spans="2:4">
+      <c r="D166" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="167" spans="2:4">
+      <c r="D167" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="168" spans="2:4">
+      <c r="D168" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="171" spans="2:4">
+      <c r="B171" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="173" spans="2:4">
+      <c r="D173" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="174" spans="2:4">
+      <c r="D174" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="175" spans="2:4">
+      <c r="D175" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="176" spans="2:4">
+      <c r="D176" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="177" spans="3:6">
+      <c r="D177" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="178" spans="3:6">
+      <c r="E178" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="179" spans="3:6">
+      <c r="E179" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="180" spans="3:6">
+      <c r="E180" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="181" spans="3:6">
+      <c r="F181" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="182" spans="3:6">
+      <c r="F182" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="183" spans="3:6">
+      <c r="F183" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="184" spans="3:6">
+      <c r="F184" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="185" spans="3:6">
+      <c r="F185" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="186" spans="3:6">
+      <c r="F186" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="188" spans="3:6">
+      <c r="C188" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="189" spans="3:6">
+      <c r="D189" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="190" spans="3:6">
+      <c r="E190" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="191" spans="3:6">
+      <c r="D191" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="192" spans="3:6">
+      <c r="E192" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="193" spans="3:13">
+      <c r="D193" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="194" spans="3:13">
+      <c r="E194" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="195" spans="3:13">
+      <c r="D195" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="196" spans="3:13">
+      <c r="E196" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="197" spans="3:13">
+      <c r="D197" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="198" spans="3:13">
+      <c r="E198" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="201" spans="3:13">
+      <c r="C201" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="202" spans="3:13">
+      <c r="D202" t="s">
+        <v>259</v>
+      </c>
+      <c r="M202" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="203" spans="3:13">
+      <c r="D203" t="s">
+        <v>261</v>
+      </c>
+      <c r="M203" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="204" spans="3:13">
+      <c r="D204" t="s">
+        <v>263</v>
+      </c>
+      <c r="M204" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="205" spans="3:13">
+      <c r="D205" t="s">
+        <v>265</v>
+      </c>
+      <c r="M205" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="206" spans="3:13">
+      <c r="D206" t="s">
+        <v>267</v>
+      </c>
+      <c r="M206" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="207" spans="3:13">
+      <c r="D207" t="s">
+        <v>269</v>
+      </c>
+      <c r="M207" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="208" spans="3:13">
+      <c r="D208" t="s">
+        <v>271</v>
+      </c>
+      <c r="M208" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="210" spans="2:12">
+      <c r="B210" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="211" spans="2:12">
+      <c r="B211" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="213" spans="2:12">
+      <c r="B213" t="s">
+        <v>275</v>
+      </c>
+      <c r="L213" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="214" spans="2:12">
+      <c r="L214" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="215" spans="2:12">
+      <c r="L215" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="216" spans="2:12">
+      <c r="L216" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="218" spans="2:12">
+      <c r="B218" t="s">
+        <v>280</v>
+      </c>
+      <c r="L218" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="219" spans="2:12">
+      <c r="L219" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="220" spans="2:12">
+      <c r="L220" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="221" spans="2:12">
+      <c r="L221" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="222" spans="2:12">
+      <c r="L222" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="223" spans="2:12">
+      <c r="L223" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="224" spans="2:12">
+      <c r="L224" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -13105,6 +14519,26 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="24" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d714a3296df14eba7a100bb665443ca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="49549bf45bfbbfb6cffed527380e77e1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -13392,34 +14826,14 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8FE8ED85-58B3-4608-8E91-0433556D50CE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5144944C-1F1D-4162-962A-96F3FC8455D8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{708DBB9E-6D89-4A94-9DC5-964B7833E11C}"/>
 </file>